--- a/APIDocs/API명세서.xlsx
+++ b/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCCDED-F2D8-4949-9C7C-3A9ECFD00B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908CE8BC-288A-4187-8C7D-DEA7C9C7E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,278 @@
   </si>
   <si>
     <t>장소의 거리에 따라 출항비용인 캐릭터의 피로도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼 장소일수록 희귀한 물고기가 있고, 물고기 씨알이 굵어짐(등급?, 희귀도?, 크기?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역에 따라 레벨의 제한이 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨와 조류 정보를 바탕으로 적절한 채비를 선택해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 낚시대, 릴, 낚시줄, 미끼를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비를 내릴 수심을 정함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장소의 최대 수심이상으로 내릴 수 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다에 설정한 채비를 내려 물고기를 잡음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 실패한다면 상황에 적절하지 않은 채비를 설정한 것, 채비를 다시 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 이외에 간혹 장비 업그레이드에 필요한 부품조작을 구할수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6-6. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 희귀한 확률로 누군가가 잃어버린 좋은 장비가 나오기도함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항구로 돌아와서 잡은 물고기를 정산, 이때 사용자별 잡은 물고기 경매가격이 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 종류의 물고기는 도감에 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 도감의 등록수를 채우면 보상이 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배는 내구도가 있어 입항을 하면 수리를 해야함.(자동? 수동?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7-5. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 모두 소진되면 출항할 수 없으며, 출항중이라도 강제로 입항함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어종별로 일정 시간마다 시세가 다름 (경매가 생성된 순간부터 시간순으로 생각하면 될듯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기는 입항해서 보관된 시간부터 3일간 신선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8-3. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은 물고기는 인벤토리에 저장됨. (아니면 임시 인벤토리? 분리할까…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매된 금액은 주단위로 누적하여 순위를 매김. (사용자별로 금액 주간으로 누적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대, 릴, 낚시줄을 업그레이드 할 수 잇음. 각 장비는 최대 업그레이드 수치를 가지고 있으며, 실패하지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배는 일정금액으로 업그레이드 할 수 있으며, 실패확률이 있음. 그리고 실패하면 내구도가 일부 소모됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 인벤토리 분리해야할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함) 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어류도감 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 혹은 진주로 낚시에 필요한 채비 아이템 혹은 업그레이드에 필요한 아이템 등을 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 필요없는 아이템을 판매할수도 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함) 물품 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화나 아이템이 오면 인벤토리나 자신의 재화로 수령해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 수령한 항목은 일정기간이 지나면 자동으로 삭제해야함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +619,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -431,7 +703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,23 +1021,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72C9BCB-374A-48FE-AEC2-FC4F8A7B7EFD}">
-  <dimension ref="C2:F35"/>
+  <dimension ref="C2:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -773,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>46</v>
       </c>
@@ -781,7 +1053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>47</v>
       </c>
@@ -789,12 +1061,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1</v>
       </c>
@@ -802,7 +1074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>46</v>
       </c>
@@ -810,7 +1082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>47</v>
       </c>
@@ -818,12 +1090,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
@@ -831,7 +1103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -839,7 +1111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>47</v>
       </c>
@@ -847,7 +1119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>2</v>
       </c>
@@ -855,7 +1127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>50</v>
       </c>
@@ -863,7 +1135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
@@ -871,7 +1143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>61</v>
       </c>
@@ -879,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>3</v>
       </c>
@@ -887,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>57</v>
       </c>
@@ -895,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>4</v>
       </c>
@@ -903,7 +1175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>60</v>
       </c>
@@ -911,12 +1183,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>70</v>
@@ -925,12 +1197,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>70</v>
@@ -939,7 +1211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>69</v>
       </c>
@@ -950,7 +1222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>67</v>
       </c>
@@ -958,17 +1230,354 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>74</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -980,12 +1589,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1007,15 +1616,15 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.296875" customWidth="1"/>
-    <col min="4" max="4" width="66.19921875" customWidth="1"/>
-    <col min="5" max="5" width="74.796875" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="66.25" customWidth="1"/>
+    <col min="5" max="5" width="74.75" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1043,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -1098,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>41</v>
       </c>
@@ -1120,7 +1729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -1208,7 +1817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>

--- a/APIDocs/API명세서.xlsx
+++ b/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908CE8BC-288A-4187-8C7D-DEA7C9C7E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D4D7A-81FE-4C4F-AF8A-D60CD783C3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/my-weather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/my-ship</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,34 +98,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 날씨 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/fish-dictionary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 물고기 도감 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 물고기 도감 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/inventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별 인벤토리 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/choice-fishing-item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 채비 아이템 선택 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 채비 아이템 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 채비 아이템 선택 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 낚시배 상태 수정 (내구도, 연료 등등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/gift-box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 선물함(우편함) 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 선물함(우편함) 등록(당첨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,26 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/map/area-list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 지역리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/map/area/{map_code}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵의 지역 상세 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,6 +551,616 @@
   </si>
   <si>
     <t>이미 수령한 항목은 일정기간이 지나면 자동으로 삭제해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RESTful API 설계 가이드</t>
+  </si>
+  <si>
+    <t>2. URL Rules</t>
+  </si>
+  <si>
+    <t>2.2. _(underbar) 대신 -(dash)를 사용한다.</t>
+  </si>
+  <si>
+    <t>2.3. 소문자를 사용한다.</t>
+  </si>
+  <si>
+    <t>2.4. 행위(method)는 URL에 포함하지 않는다.</t>
+  </si>
+  <si>
+    <t>2.5. 컨트롤 자원을 의미하는 URL 예외적으로 동사를 허용한다.</t>
+  </si>
+  <si>
+    <t>3. Set HTTP Headers</t>
+  </si>
+  <si>
+    <t>3.1. Content-Location</t>
+  </si>
+  <si>
+    <t>3.2. Content-Type</t>
+  </si>
+  <si>
+    <t>3.3. Retry-After</t>
+  </si>
+  <si>
+    <t>3.3.1. Case 1. 인증</t>
+  </si>
+  <si>
+    <t>3.3.2. Case 2. 자원 요청</t>
+  </si>
+  <si>
+    <t>3.4. Link</t>
+  </si>
+  <si>
+    <t>4. Use HTTP methods</t>
+  </si>
+  <si>
+    <t>4.1. POST, GET, PUT, DELETE 4가지 methods는 반드시 제공한다.</t>
+  </si>
+  <si>
+    <t>4.2. OPTIONS, HEAD, PATCH를 사용하여 완성도 높은 API를 만든다.</t>
+  </si>
+  <si>
+    <t>4.2.1. OPTIONS</t>
+  </si>
+  <si>
+    <t>4.2.2. HEAD</t>
+  </si>
+  <si>
+    <t>4.2.3. PATCH</t>
+  </si>
+  <si>
+    <t>4.2.3.1. Example</t>
+  </si>
+  <si>
+    <t>5. Use HTTP status</t>
+  </si>
+  <si>
+    <t>5.1. 의미에 맞는 HTTP status를 리턴한다</t>
+  </si>
+  <si>
+    <t>5.2. HTTP status만으로 상태 에러를 나타낸다</t>
+  </si>
+  <si>
+    <t>6. Use the correct HTTP status code.</t>
+  </si>
+  <si>
+    <t>7. Use HATEOAS</t>
+  </si>
+  <si>
+    <t>7.1. 구성 요소</t>
+  </si>
+  <si>
+    <t>7.2. 응답 예제</t>
+  </si>
+  <si>
+    <t>8. Paging, Ordering, Filtering, Field-Selecting</t>
+  </si>
+  <si>
+    <t>8.1. Paging</t>
+  </si>
+  <si>
+    <t>8.1.1. Paging Key</t>
+  </si>
+  <si>
+    <t>8.1.2. 응답 예제</t>
+  </si>
+  <si>
+    <t>8.1.2.1. HTTP Header의 Link 속성을 이용한다.</t>
+  </si>
+  <si>
+    <t>8.1.2.2. HATEOAS로 응답한다.</t>
+  </si>
+  <si>
+    <t>8.1.2.3. Link, HATEOAS 모두 사용한다.</t>
+  </si>
+  <si>
+    <t>8.2. Ordering</t>
+  </si>
+  <si>
+    <t>8.2.1. 요청 샘플</t>
+  </si>
+  <si>
+    <t>8.3. Filtering</t>
+  </si>
+  <si>
+    <t>8.4. Field-Selecting</t>
+  </si>
+  <si>
+    <t>8.4.1. 요청 샘플</t>
+  </si>
+  <si>
+    <t>9. Versioning</t>
+  </si>
+  <si>
+    <t>9.1. 종류</t>
+  </si>
+  <si>
+    <t>9.2. URI Versioning 개발 가이드</t>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.1. 마지막에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 포함하지 않는다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.1. 성공 응답은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>2XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>로 응답한다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.2. 실패 응답은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>4XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>로 응답한다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>5XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 에러는 절대 사용자에게 나타내지 마라!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.1.1. 예외적으로 서비스의 기본 도메인이 3차인 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>path level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>에 모두 명시한다.</t>
+    </r>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTROLLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 날씨 수정(온도, 풍량 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/leve-port/{map_code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배의 출항하는 액션(낚시배, 피로도 등 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/enter-port/{map_code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배의 입항하는 액션(물고기 정산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fshing/operate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/fishing-items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/fishing-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/gift-boxs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시하기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fshing/inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fshing/inventorys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/inventory-items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/inventory-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction/ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 경매 회원 순위 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upgrade/fishing-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 업그레이드 기능(낚시대, 낚시줄, 릴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upgrade/ship-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 업그레이드 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리하기 기능 (채비(낚시대, 낚시불, 릴), 낚시배)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quest/compensation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quest/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/item/{shop_code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이템 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이템 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 경매 가격 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 인벤토리 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 인벤토리 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 캐릭터 정보 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/infos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 캐릭터 정보 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 물고기 도감 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 채비 아이템 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 채비 아이템  상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 선물함(우편함) 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 선물함(우편함) 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 지역 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 지역 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 임시 인벤토리 목록 조회(출항했을 때만 잡은 물고기 보기 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 임시 인벤토리 상세 조회(출항했을 때만 잡은 물고기 보기 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 경매 가격 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 업그레이드 결과 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 업그레이드 결과 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이템 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/use-inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 인벤토리 물약 사용(?, 피로도 회복??)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_id": "pgh97@com2us.com",
+"account_pw": "1111",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_id": "pgh97@com2us.com",
+"account_pw": "1111",
+"account_type": 0,
+"country_code": 1,
+"language_code": 1,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+"weather_code": 1,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"weather_code": 1,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+"map_fish_code" :
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+"Inventory_code" :
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+"choice_code" :
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 1,
+"box_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"map_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"shop_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":
+"shop_code": 
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +1171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,8 +1196,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,8 +1252,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -684,30 +1287,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1021,557 +1746,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72C9BCB-374A-48FE-AEC2-FC4F8A7B7EFD}">
-  <dimension ref="C2:F89"/>
+  <dimension ref="C2:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" s="11" customFormat="1">
+      <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
       <c r="D4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="D5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5">
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" s="11" customFormat="1">
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" s="11" customFormat="1">
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" s="11" customFormat="1">
+      <c r="C27" s="11">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="31" spans="3:6">
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="34" spans="3:6">
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="37" spans="3:6">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" s="11" customFormat="1">
+      <c r="C40" s="11">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="D42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="D43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+      <c r="E43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="44" spans="3:6">
+      <c r="E44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="48" spans="3:6" s="11" customFormat="1">
+      <c r="C48" s="11">
+        <v>6</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="50" spans="3:5">
+      <c r="D50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="D51" t="s">
         <v>78</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E51" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="52" spans="3:5">
+      <c r="D52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="E52" t="s">
         <v>81</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="53" spans="3:5">
+      <c r="D53" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+      <c r="E53" t="s">
         <v>83</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="54" spans="3:5">
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="55" spans="3:5">
+      <c r="D55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" s="11" customFormat="1">
+      <c r="C58" s="11">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="59" spans="3:5">
+      <c r="D59" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
+      <c r="E59" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="60" spans="3:5">
+      <c r="D60" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+      <c r="E60" t="s">
         <v>91</v>
       </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    </row>
+    <row r="61" spans="3:5">
+      <c r="D61" t="s">
         <v>92</v>
       </c>
-      <c r="E50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
+      <c r="E61" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="62" spans="3:5">
+      <c r="D62" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+      <c r="E62" t="s">
         <v>95</v>
       </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="63" spans="3:5">
+      <c r="D63" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+      <c r="E63" t="s">
         <v>97</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="66" spans="3:5" s="11" customFormat="1">
+      <c r="C66" s="11">
+        <v>8</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
+    <row r="67" spans="3:5">
+      <c r="D67" t="s">
         <v>99</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="D68" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" s="11" customFormat="1">
+      <c r="C72" s="11">
+        <v>9</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" s="11" customFormat="1">
+      <c r="C77" s="11">
+        <v>10</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" s="11" customFormat="1">
+      <c r="C78" s="11">
+        <v>11</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" s="11" customFormat="1">
+      <c r="C79" s="11">
+        <v>12</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="D80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" s="11" customFormat="1">
+      <c r="C81" s="11">
+        <v>13</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" s="11" customFormat="1">
+      <c r="C82" s="11">
+        <v>14</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" s="11" customFormat="1">
+      <c r="C83" s="11">
+        <v>16</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" s="11" customFormat="1">
+      <c r="C84" s="11">
+        <v>17</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" t="s">
+    <row r="85" spans="3:5">
+      <c r="D85" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+    <row r="86" spans="3:5">
+      <c r="D86" t="s">
         <v>122</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E86" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
+    <row r="87" spans="3:5" s="11" customFormat="1">
+      <c r="C87" s="11">
+        <v>18</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="88" spans="3:5">
+      <c r="D88" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E88" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="89" spans="3:5">
+      <c r="D89" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C79">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C81">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C82">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C83">
-        <v>16</v>
-      </c>
-      <c r="D83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C84">
-        <v>17</v>
-      </c>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C87">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D88" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" t="s">
-        <v>143</v>
+    <row r="91" spans="3:5" s="11" customFormat="1">
+      <c r="C91" s="11">
+        <v>19</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1583,21 +2316,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4BF26C-B0DE-4B93-AA00-7847725AE440}">
-  <dimension ref="B1"/>
+  <dimension ref="B1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1605,285 +2606,887 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{4F648DB5-2050-4729-93AA-4E972A560F14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="66.25" customWidth="1"/>
-    <col min="5" max="5" width="74.75" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="61.25" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="G2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="115.5">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="66">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" ht="49.5">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" ht="49.5">
+      <c r="B6" s="26">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" ht="49.5">
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" ht="49.5">
+      <c r="B8" s="26">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" ht="66">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" ht="49.5">
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" ht="49.5">
+      <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" ht="66">
+      <c r="B12" s="26">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="66">
+      <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" ht="49.5">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="66">
+      <c r="B15" s="26">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" ht="66">
+      <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="66">
+      <c r="B17" s="26">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" ht="49.5">
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" ht="66">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" ht="66">
+      <c r="B21" s="26">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" ht="66">
+      <c r="B22" s="26">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" ht="66">
+      <c r="B23" s="26">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" ht="49.5">
+      <c r="B24" s="26">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" ht="66">
+      <c r="B25" s="26">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" ht="66">
+      <c r="B26" s="26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="26">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" ht="49.5">
+      <c r="B28" s="26">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="26">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="26">
+        <v>28</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="26">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="26">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="26">
+        <v>31</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="26">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="26">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="26">
+        <v>34</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="26">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="26">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="26">
+        <v>37</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="26">
+        <v>38</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="26">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="26">
+        <v>40</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="E43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="26">
+        <v>42</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" ht="49.5">
+      <c r="B45" s="26">
+        <v>43</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="2:8" ht="66">
+      <c r="B46" s="26">
+        <v>44</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
+      <c r="E46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/APIDocs/API명세서.xlsx
+++ b/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D4D7A-81FE-4C4F-AF8A-D60CD783C3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F85664-C79D-4832-B89B-850A0B8FEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="-52480" yWindow="-4950" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="268">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 날씨 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +111,6 @@
   </si>
   <si>
     <t>회원별 채비 아이템 선택 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -789,10 +781,6 @@
     </r>
   </si>
   <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/auth/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,15 +813,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/map/leve-port/{map_code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시배의 출항하는 액션(낚시배, 피로도 등 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/map/enter-port/{map_code}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1160,6 +1140,81 @@
     <t>{
 "user_code":
 "shop_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"map_code": ,
+"user_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/leve-port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/map/enter-port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": ,
+"fish_inventory_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": ,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"auction_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"week_date":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"inventory_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"ship_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"item_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"quest_code"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1336,7 +1391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,15 +1434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1400,26 +1446,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1428,6 +1459,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1748,18 +1794,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72C9BCB-374A-48FE-AEC2-FC4F8A7B7EFD}">
   <dimension ref="C2:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" s="11" customFormat="1">
       <c r="C2" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="3:5">
@@ -1767,28 +1813,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="3:5">
@@ -1796,52 +1842,52 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="3:5">
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:5">
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:6" s="11" customFormat="1">
@@ -1849,31 +1895,31 @@
         <v>2</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:6" s="11" customFormat="1">
@@ -1881,15 +1927,15 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:6" s="11" customFormat="1">
@@ -1897,86 +1943,86 @@
         <v>4</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="D36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="D37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="3:6" s="11" customFormat="1">
@@ -1984,47 +2030,47 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="D41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
         <v>68</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
         <v>69</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="E44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="E45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="3:6" s="11" customFormat="1">
@@ -2032,63 +2078,63 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="D49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="D51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="D52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="D53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="D54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="D55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="3:5" s="11" customFormat="1">
@@ -2096,47 +2142,47 @@
         <v>7</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="D59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="3:5">
       <c r="D61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="D62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="D63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="11" customFormat="1">
@@ -2144,31 +2190,31 @@
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
         <v>99</v>
-      </c>
-      <c r="E67" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="68" spans="3:5">
       <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
         <v>100</v>
-      </c>
-      <c r="E68" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="69" spans="3:5">
       <c r="D69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
         <v>103</v>
-      </c>
-      <c r="E69" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="3:5" s="11" customFormat="1">
@@ -2176,23 +2222,23 @@
         <v>9</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="3:5">
       <c r="D73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="3:5">
       <c r="D74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="11" customFormat="1">
@@ -2200,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="3:5" s="11" customFormat="1">
@@ -2208,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="3:5" s="11" customFormat="1">
@@ -2216,15 +2262,15 @@
         <v>12</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="3:5">
       <c r="D80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="3:5" s="11" customFormat="1">
@@ -2232,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="3:5" s="11" customFormat="1">
@@ -2240,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="3:5" s="11" customFormat="1">
@@ -2248,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="3:5" s="11" customFormat="1">
@@ -2256,23 +2302,23 @@
         <v>17</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="D85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="D86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="3:5" s="11" customFormat="1">
@@ -2280,23 +2326,23 @@
         <v>18</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="D88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="D89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="3:5" s="11" customFormat="1">
@@ -2304,7 +2350,7 @@
         <v>19</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2318,11 +2364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4BF26C-B0DE-4B93-AA00-7847725AE440}">
   <dimension ref="B1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="15.5" style="5" customWidth="1"/>
   </cols>
@@ -2334,57 +2380,57 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -2392,32 +2438,32 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2425,17 +2471,17 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -2443,67 +2489,67 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -2511,12 +2557,12 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -2524,22 +2570,22 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -2547,17 +2593,17 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:2">
@@ -2565,17 +2611,17 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:2">
@@ -2583,12 +2629,12 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:2">
@@ -2614,867 +2660,897 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="7.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="61.25" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="30" customWidth="1"/>
-    <col min="8" max="8" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.69921875" customWidth="1"/>
+    <col min="6" max="6" width="61.19921875" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="22" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="121.8">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="115.5">
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>246</v>
+      <c r="G3" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:8" ht="66">
-      <c r="B4" s="26">
+    <row r="4" spans="2:8" ht="69.599999999999994">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>245</v>
+      <c r="G4" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" ht="49.5">
-      <c r="B5" s="26">
+    <row r="5" spans="2:8" ht="52.2">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
+      <c r="C5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>247</v>
+        <v>221</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" ht="49.5">
-      <c r="B6" s="26">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
+    <row r="6" spans="2:8" ht="52.2">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>248</v>
+        <v>223</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" ht="49.5">
-      <c r="B7" s="26">
+    <row r="7" spans="2:8" ht="52.2">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" ht="49.5">
-      <c r="B8" s="26">
+    <row r="8" spans="2:8" ht="52.2">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
+      <c r="C8" s="23"/>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>248</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" ht="66">
-      <c r="B9" s="26">
+    <row r="9" spans="2:8" ht="69.599999999999994">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>251</v>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>246</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="49.5">
-      <c r="B10" s="26">
+    <row r="10" spans="2:8" ht="52.2">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9" t="s">
-        <v>177</v>
+      <c r="C10" s="23"/>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" ht="52.2">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" ht="69.599999999999994">
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="69.599999999999994">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" ht="52.2">
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="69.599999999999994">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" ht="69.599999999999994">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="69.599999999999994">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" ht="52.2">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" ht="69.599999999999994">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" ht="69.599999999999994">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" ht="69.599999999999994">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" ht="69.599999999999994">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" ht="52.2">
+      <c r="B24" s="12">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" ht="69.599999999999994">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" ht="69.599999999999994">
+      <c r="B26" s="12">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" ht="52.2">
+      <c r="B28" s="12">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:8" ht="69.599999999999994">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" ht="69.599999999999994">
+      <c r="B30" s="12">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" ht="49.5">
-      <c r="B11" s="26">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="26">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="G30" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" ht="52.2">
+      <c r="B31" s="12">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" ht="66">
-      <c r="B13" s="26">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" ht="49.5">
-      <c r="B14" s="26">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" ht="52.2">
+      <c r="B32" s="12">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" ht="69.599999999999994">
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8" ht="52.2">
+      <c r="B34" s="12">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" ht="69.599999999999994">
+      <c r="B35" s="12">
+        <v>33</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" ht="52.2">
+      <c r="B36" s="12">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" ht="69.599999999999994">
+      <c r="B37" s="12">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" ht="66">
-      <c r="B15" s="26">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" ht="69.599999999999994">
+      <c r="B38" s="12">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="G38" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" ht="69.599999999999994">
+      <c r="B39" s="12">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" ht="69.599999999999994">
+      <c r="B40" s="12">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" ht="69.599999999999994">
+      <c r="B41" s="12">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:8" ht="52.2">
+      <c r="B42" s="12">
+        <v>40</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:8" ht="69.599999999999994">
+      <c r="B43" s="12">
+        <v>41</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="12">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" ht="52.2">
+      <c r="B45" s="12">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="2:8" ht="69.599999999999994">
+      <c r="B46" s="12">
+        <v>44</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" ht="66">
-      <c r="B16" s="26">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" ht="66">
-      <c r="B17" s="26">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="26">
-        <v>16</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" ht="49.5">
-      <c r="B19" s="26">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" ht="66">
-      <c r="B20" s="26">
-        <v>18</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" ht="66">
-      <c r="B21" s="26">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="2:8" ht="66">
-      <c r="B22" s="26">
-        <v>20</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" ht="66">
-      <c r="B23" s="26">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="49.5">
-      <c r="B24" s="26">
-        <v>22</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" ht="66">
-      <c r="B25" s="26">
-        <v>23</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" ht="66">
-      <c r="B26" s="26">
-        <v>24</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="26">
-        <v>25</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:8" ht="49.5">
-      <c r="B28" s="26">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="26">
-        <v>27</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="26">
-        <v>28</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="26">
-        <v>29</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="26">
-        <v>30</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="26">
-        <v>31</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="26">
-        <v>32</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="26">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="26">
-        <v>34</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="26">
-        <v>35</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="26">
-        <v>36</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="26">
-        <v>37</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="26">
-        <v>38</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="26">
-        <v>39</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="26">
-        <v>40</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="26">
-        <v>41</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="26">
-        <v>42</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="2:8" ht="49.5">
-      <c r="B45" s="26">
-        <v>43</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="2:8" ht="66">
-      <c r="B46" s="26">
-        <v>44</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>260</v>
-      </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/APIDocs/API명세서.xlsx
+++ b/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F85664-C79D-4832-B89B-850A0B8FEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E40CD-7BB2-4DF2-918E-CD3ACB1EB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52480" yWindow="-4950" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="298">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원별 날씨 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원별 날씨 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
   </si>
   <si>
     <t>/user/fish-dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별 물고기 도감 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -929,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,23 +1009,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채비 업그레이드 결과 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시배 업그레이드 결과 정보 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상점 아이템 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/use-inventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원별 인벤토리 물약 사용(?, 피로도 회복??)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1059,12 +1035,6 @@
   </si>
   <si>
     <t>{
-"account_code": 1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "user_code": 1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,19 +1046,6 @@
   <si>
     <t>{
 "user_code": 1,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"user_code": 1,
-"weather_code": 1,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"weather_code": 1,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,6 +1172,186 @@
     <t>{
 "user_code":,
 "quest_code"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/level-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 캐릭터 레빌업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 캐릭터 정보 수정(경험치, 재화, 피로드 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/info/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 캐릭터 회복, 재화 충전 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/my-weather/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/inventory-item/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 계정 정보 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/info/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/find-id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/find-pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 계정 id 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 계정 pw 찾기(임시발급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_code": ,
+"account_id"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_code": ,
+"email":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"account_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"weather_code": 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/fishing-item/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/fishing-item/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/inventory-item/remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/fishing-item/remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/gift-box/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upgrade/fishing-item/preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 업그레이드 결과 미리보기 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upgrade/ship-item/preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/quest/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"quest_code":
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/item/buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 잡은 물고기 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":,
+"auction_code":,
+"inventory_code"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auction/user-item/sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/user-item/sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 필요없는 아이템 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"user_code":
+"inventory_code": 
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1223,10 +1360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,16 +1419,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,17 +1431,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1380,22 +1495,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1425,9 +1534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,12 +1541,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,6 +1564,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,12 +1576,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1794,18 +1893,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72C9BCB-374A-48FE-AEC2-FC4F8A7B7EFD}">
   <dimension ref="C2:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" s="11" customFormat="1">
-      <c r="C2" s="11" t="s">
-        <v>35</v>
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:5">
@@ -1813,28 +1912,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="3:5">
@@ -1842,515 +1941,513 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="3:5">
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="D13" s="1" t="s">
-        <v>28</v>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" s="11" customFormat="1">
-      <c r="C18" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>27</v>
+      <c r="D18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="D20" s="1" t="s">
-        <v>34</v>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" s="11" customFormat="1">
-      <c r="C23" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>39</v>
+      <c r="D23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" s="11" customFormat="1">
-      <c r="C27" s="11">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="D29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
+      <c r="E30" t="s">
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>53</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="D36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" s="11" customFormat="1">
-      <c r="C40" s="11">
-        <v>5</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="D41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
         <v>66</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
         <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="E44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="E45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" s="11" customFormat="1">
-      <c r="C48" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>69</v>
+      <c r="D48" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="D49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="D50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="D51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="D52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="D53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="D54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="D55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" s="11" customFormat="1">
-      <c r="C58" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58">
         <v>7</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>85</v>
+      <c r="D58" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="D59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="D60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="3:5">
       <c r="D61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="D62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
         <v>94</v>
-      </c>
-      <c r="E63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" s="11" customFormat="1">
-      <c r="C66" s="11">
-        <v>8</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
         <v>97</v>
-      </c>
-      <c r="E67" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="68" spans="3:5">
       <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
         <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="69" spans="3:5">
       <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
         <v>101</v>
       </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" s="11" customFormat="1">
-      <c r="C72" s="11">
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72">
         <v>9</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>104</v>
+      <c r="D72" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="3:5">
       <c r="D73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="3:5">
       <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
         <v>107</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="3:5" s="11" customFormat="1">
-      <c r="C77" s="11">
-        <v>10</v>
-      </c>
-      <c r="D77" s="11" t="s">
+    <row r="79" spans="3:5">
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" s="11" customFormat="1">
-      <c r="C78" s="11">
-        <v>11</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" s="11" customFormat="1">
-      <c r="C79" s="11">
-        <v>12</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="80" spans="3:5">
       <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
         <v>112</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="3:5" s="11" customFormat="1">
-      <c r="C81" s="11">
-        <v>13</v>
-      </c>
-      <c r="D81" s="11" t="s">
+    <row r="83" spans="3:5">
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="3:5" s="11" customFormat="1">
-      <c r="C82" s="11">
-        <v>14</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    <row r="84" spans="3:5">
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" s="11" customFormat="1">
-      <c r="C83" s="11">
-        <v>16</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" s="11" customFormat="1">
-      <c r="C84" s="11">
-        <v>17</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="D85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="D86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
         <v>120</v>
-      </c>
-      <c r="E86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" s="11" customFormat="1">
-      <c r="C87" s="11">
-        <v>18</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="D88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="D89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" s="11" customFormat="1">
-      <c r="C91" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91">
         <v>19</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>205</v>
+      <c r="D91" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2368,283 +2465,283 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="2"/>
+      <c r="B61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2658,910 +2755,1027 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="7.3984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" customWidth="1"/>
-    <col min="6" max="6" width="61.19921875" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="61.25" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="115.5">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" ht="66">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="49.5">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" ht="66">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" ht="66">
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" ht="49.5">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="G8" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" ht="49.5">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="49.5">
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" ht="49.5">
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="49.5">
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" ht="49.5">
+      <c r="B13" s="19">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" ht="49.5">
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" ht="49.5">
+      <c r="B15" s="19">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" ht="66">
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="49.5">
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="66">
+      <c r="B18" s="19">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" ht="66">
+      <c r="B19" s="19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" ht="66">
+      <c r="B20" s="19">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="49.5">
+      <c r="B21" s="19">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" ht="66">
+      <c r="B22" s="19">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="66">
+      <c r="B23" s="19">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" ht="66">
+      <c r="B24" s="19">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" ht="66">
+      <c r="B25" s="19">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" ht="49.5">
+      <c r="B26" s="19">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" ht="66">
+      <c r="B27" s="19">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" ht="66">
+      <c r="B28" s="19">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="19">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="49.5">
+      <c r="B30" s="19">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="66">
+      <c r="B31" s="19">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="66">
+      <c r="B32" s="19">
+        <v>30</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="121.8">
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="2:8" ht="69.599999999999994">
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="52.2">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="52.2">
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" ht="52.2">
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F32" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="49.5">
+      <c r="B33" s="19">
+        <v>31</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:8" ht="52.2">
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="2:8" ht="69.599999999999994">
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" ht="49.5">
+      <c r="B34" s="19">
+        <v>32</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" ht="66">
+      <c r="B35" s="19">
+        <v>33</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="49.5">
+      <c r="B36" s="19">
+        <v>34</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" ht="66">
+      <c r="B37" s="19">
+        <v>35</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:8" ht="82.5">
+      <c r="B38" s="19">
+        <v>36</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" ht="49.5">
+      <c r="B39" s="19">
+        <v>37</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:8" ht="66">
+      <c r="B40" s="19">
+        <v>38</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" ht="66">
+      <c r="B41" s="19">
+        <v>39</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" ht="66">
+      <c r="B42" s="19">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" ht="66">
+      <c r="B43" s="19">
+        <v>41</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" ht="49.5">
+      <c r="B44" s="19">
+        <v>42</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" ht="66">
+      <c r="B45" s="19">
+        <v>43</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" ht="49.5">
+      <c r="B46" s="19">
+        <v>44</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" ht="66">
+      <c r="B47" s="19">
+        <v>45</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" ht="66">
+      <c r="B48" s="19">
+        <v>46</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="19">
+        <v>47</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" ht="49.5">
+      <c r="B50" s="19">
+        <v>48</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" ht="66">
+      <c r="B51" s="19">
+        <v>49</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" ht="52.2">
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" ht="52.2">
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" ht="69.599999999999994">
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" ht="69.599999999999994">
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" ht="52.2">
-      <c r="B14" s="12">
-        <v>12</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" ht="69.599999999999994">
-      <c r="B15" s="12">
-        <v>13</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" ht="69.599999999999994">
-      <c r="B16" s="12">
-        <v>14</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" ht="69.599999999999994">
-      <c r="B17" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12">
-        <v>16</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" ht="52.2">
-      <c r="B19" s="12">
-        <v>17</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" ht="69.599999999999994">
-      <c r="B20" s="12">
-        <v>18</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" ht="69.599999999999994">
-      <c r="B21" s="12">
-        <v>19</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="2:8" ht="69.599999999999994">
-      <c r="B22" s="12">
-        <v>20</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" ht="69.599999999999994">
-      <c r="B23" s="12">
-        <v>21</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="52.2">
-      <c r="B24" s="12">
-        <v>22</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" ht="69.599999999999994">
-      <c r="B25" s="12">
-        <v>23</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" ht="69.599999999999994">
-      <c r="B26" s="12">
-        <v>24</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="12">
-        <v>25</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:8" ht="52.2">
-      <c r="B28" s="12">
-        <v>26</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8" ht="69.599999999999994">
-      <c r="B29" s="12">
-        <v>27</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="2:8" ht="69.599999999999994">
-      <c r="B30" s="12">
-        <v>28</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="2:8" ht="52.2">
-      <c r="B31" s="12">
-        <v>29</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="2:8" ht="52.2">
-      <c r="B32" s="12">
-        <v>30</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="2:8" ht="69.599999999999994">
-      <c r="B33" s="12">
-        <v>31</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8" ht="52.2">
-      <c r="B34" s="12">
-        <v>32</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" ht="69.599999999999994">
-      <c r="B35" s="12">
-        <v>33</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" ht="52.2">
-      <c r="B36" s="12">
-        <v>34</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="2:8" ht="69.599999999999994">
-      <c r="B37" s="12">
-        <v>35</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="2:8" ht="69.599999999999994">
-      <c r="B38" s="12">
-        <v>36</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="2:8" ht="69.599999999999994">
-      <c r="B39" s="12">
-        <v>37</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="2:8" ht="69.599999999999994">
-      <c r="B40" s="12">
-        <v>38</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="2:8" ht="69.599999999999994">
-      <c r="B41" s="12">
-        <v>39</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="2:8" ht="52.2">
-      <c r="B42" s="12">
-        <v>40</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="2:8" ht="69.599999999999994">
-      <c r="B43" s="12">
-        <v>41</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="12">
-        <v>42</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="2:8" ht="52.2">
-      <c r="B45" s="12">
-        <v>43</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="2:8" ht="69.599999999999994">
-      <c r="B46" s="12">
-        <v>44</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" ht="66">
+      <c r="B52" s="19">
+        <v>50</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+  <mergeCells count="9">
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C8:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
